--- a/wiki/cost-estimates/emr-cost-estimator.xlsx
+++ b/wiki/cost-estimates/emr-cost-estimator.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>S3</t>
   </si>
@@ -69,9 +69,6 @@
     <t>m4.large</t>
   </si>
   <si>
-    <t>Price Per Hour</t>
-  </si>
-  <si>
     <t># of Instances</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>Total Storage Price</t>
+  </si>
+  <si>
+    <t>Price Per Hour EC2</t>
+  </si>
+  <si>
+    <t>Price Per Hour EMR</t>
+  </si>
+  <si>
+    <t>Total Price Per Hour</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="B2:D3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2B148D-022F-4E13-B82B-09BB70200B43}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,15 +524,17 @@
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
-    <col min="14" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" customWidth="1"/>
+    <col min="16" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -534,12 +542,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -547,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1500</v>
       </c>
@@ -561,12 +569,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -574,34 +582,40 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -612,35 +626,41 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>B1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
         <f>D10*E10*F10</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0.24</v>
-      </c>
-      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="1">
+        <f>H10+I10</f>
+        <v>0.26</v>
+      </c>
+      <c r="K10" s="1">
+        <f>G10*J10</f>
+        <v>5.2</v>
+      </c>
+      <c r="L10">
         <v>20</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.1</v>
       </c>
-      <c r="L10">
-        <f>J10*K10*E10</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <f>L10*M10*E10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -648,73 +668,79 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <f>B1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
         <f>D11*E11*F11</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="1">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>24</v>
-      </c>
-      <c r="J11">
+        <v>0.06</v>
+      </c>
+      <c r="J11" s="1">
+        <f>H11+I11</f>
+        <v>0.26</v>
+      </c>
+      <c r="K11" s="1">
+        <f>G11*J11</f>
+        <v>260</v>
+      </c>
+      <c r="L11">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.1</v>
       </c>
-      <c r="L11">
-        <f>J11*K11*E11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I13" s="1">
-        <f>SUM(I10:I11)</f>
-        <v>24.24</v>
-      </c>
-      <c r="L13">
-        <f>SUM(L10:L11)</f>
-        <v>8</v>
-      </c>
-      <c r="N13" s="1">
-        <f>SUM(I13:L13)</f>
-        <v>32.239999999999995</v>
-      </c>
-      <c r="O13" s="1">
-        <f>N13+D6</f>
-        <v>47.239999999999995</v>
+      <c r="N11">
+        <f>L11*M11*E11</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K13" s="1">
+        <f>SUM(K10:K11)</f>
+        <v>265.2</v>
+      </c>
+      <c r="N13">
+        <f>SUM(N10:N11)</f>
+        <v>20</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(K13:N13)</f>
+        <v>285.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>P13+D6</f>
+        <v>300.2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/wiki/cost-estimates/emr-cost-estimator.xlsx
+++ b/wiki/cost-estimates/emr-cost-estimator.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{B29C2B61-8665-45F0-A305-A5FD42EC3DF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{B29C2B61-8665-45F0-A305-A5FD42EC3DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Costs" sheetId="1" r:id="rId1"/>
     <sheet name="Per-Test Costs - 5 hours" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>S3</t>
   </si>
@@ -39,9 +40,6 @@
     <t>Storage Size</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>S3 Transfer Costs</t>
   </si>
   <si>
@@ -112,15 +110,61 @@
   </si>
   <si>
     <t>Total Price Per Hour</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Instance Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Swarm Manager</t>
+  </si>
+  <si>
+    <t>t1.micro</t>
+  </si>
+  <si>
+    <t>Price Per Hour</t>
+  </si>
+  <si>
+    <t>EC2 - On Demand</t>
+  </si>
+  <si>
+    <t>Worker Node - Logging</t>
+  </si>
+  <si>
+    <t>Worker Node - Monitoring</t>
+  </si>
+  <si>
+    <t>t2.xlarge</t>
+  </si>
+  <si>
+    <t>Price Per Month</t>
+  </si>
+  <si>
+    <t>Price Per Year</t>
+  </si>
+  <si>
+    <t>EC2 - Reserved Instances</t>
+  </si>
+  <si>
+    <t>Total Price with OnDemand</t>
+  </si>
+  <si>
+    <t>Total Price with Reserved Instances</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -151,10 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,19 +514,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1744860D-59B4-4651-8C5F-C5E348293B24}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -489,10 +543,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -502,9 +565,212 @@
       <c r="D3" s="1">
         <v>35</v>
       </c>
+      <c r="E3" s="2">
+        <f>D3*12</f>
+        <v>420</v>
+      </c>
+      <c r="I3" s="1">
+        <f>D3+F11</f>
+        <v>322.09999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="2">
+        <f>E3+G11</f>
+        <v>3865.2</v>
+      </c>
+      <c r="J4" s="2">
+        <f>G20+E3</f>
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(E7*D7)*750</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7*12</f>
+        <v>104.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(E8*D8)*750</f>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G9" si="0">F8*12</f>
+        <v>1670.3999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <f>(E9*D9)*750</f>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1670.3999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <f>SUM(F7:F9)</f>
+        <v>287.09999999999997</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM(G7:G9)</f>
+        <v>3445.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="2">
+        <f>SUM(G16:G18)</f>
+        <v>1983</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -512,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2B148D-022F-4E13-B82B-09BB70200B43}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -536,7 +802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -544,15 +810,15 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -571,56 +837,56 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -662,10 +928,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -725,22 +991,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
